--- a/test/test_files/test_link.xlsx
+++ b/test/test_files/test_link.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Widdershins\OneDrive\Documents\Python_Projects\formulas_check\formulas\test\test_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEB722-ADFA-43C0-8CDD-26ADA246A5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,8 +23,16 @@
     <definedName name="f">Sheet1!$G$2:$H$5</definedName>
     <definedName name="g">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -69,6 +83,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -329,23 +346,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1">
         <f>B1+C1</f>
         <v>2</v>
@@ -357,25 +374,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C15" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C17" s="1"/>
     </row>
   </sheetData>

--- a/test/test_files/test_link.xlsx
+++ b/test/test_files/test_link.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990F3237-BA43-734B-B23E-4886CF98C2D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <definedName name="f">Sheet1!$G$2:$H$5</definedName>
     <definedName name="g">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateCount="1" calcOnSave="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -69,6 +75,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -329,23 +338,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <f>B1+C1</f>
         <v>2</v>
@@ -357,25 +366,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="15.95" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
     </row>
   </sheetData>
